--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint Planing.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint Planing.xlsx
@@ -21,14 +21,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="E8UdBjnaJNAjgd+hNhSJbBXMV3ur0eC4b+a6fmW5wH4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="CvXh6va7FQVyZYb1oE3+2fnCls7ViQqlERqDv8ivH3E="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="111">
   <si>
     <t>SPRINT PLANNING TEMPLATE</t>
   </si>
@@ -281,9 +281,6 @@
     <t>SPRINT 2</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Pruebas de Integración con API</t>
   </si>
   <si>
@@ -317,10 +314,13 @@
     <t>SPRINT 3</t>
   </si>
   <si>
-    <t>Not Started</t>
+    <t xml:space="preserve">Revisión de Errores y Arreglos </t>
   </si>
   <si>
-    <t>Revisión de Errores</t>
+    <t>Implementacion de Menú</t>
+  </si>
+  <si>
+    <t>Reestablecer contraseña</t>
   </si>
   <si>
     <t>Validación de Funcionalidades</t>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Planilla de Evaluación Final Fase 2</t>
+  </si>
+  <si>
+    <t>Este archivo Estará disponible para el dia 23 o en la semana del 18 de noviembre.</t>
   </si>
   <si>
     <t>SPRINT 4</t>
@@ -357,6 +360,12 @@
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
   <si>
     <t>Needs Review</t>
@@ -1071,7 +1080,7 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1091,17 +1100,14 @@
     <xf borderId="4" fillId="15" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="15" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1114,6 +1120,9 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1550,6 +1559,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="13.78"/>
+    <col customWidth="1" min="10" max="10" width="18.44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1598,7 +1608,7 @@
         <v>45626.0</v>
       </c>
       <c r="G4" s="15">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>9</v>
@@ -2757,7 +2767,7 @@
         <v>21</v>
       </c>
       <c r="H47" s="46" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I47" s="80"/>
       <c r="J47" s="75"/>
@@ -2781,7 +2791,7 @@
         <v>21</v>
       </c>
       <c r="H48" s="46" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I48" s="39"/>
       <c r="J48" s="75"/>
@@ -2791,7 +2801,7 @@
         <v>63</v>
       </c>
       <c r="C49" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="71" t="s">
         <v>38</v>
@@ -2819,7 +2829,7 @@
         <v>63</v>
       </c>
       <c r="C50" s="70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" s="71" t="s">
         <v>38</v>
@@ -2838,7 +2848,7 @@
         <v>20</v>
       </c>
       <c r="I50" s="46" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J50" s="75"/>
     </row>
@@ -2847,7 +2857,7 @@
         <v>63</v>
       </c>
       <c r="C51" s="70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="71" t="s">
         <v>38</v>
@@ -2875,7 +2885,7 @@
         <v>63</v>
       </c>
       <c r="C52" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="71" t="s">
         <v>38</v>
@@ -2891,7 +2901,7 @@
         <v>17</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I52" s="46" t="s">
         <v>25</v>
@@ -2903,7 +2913,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="70" t="s">
         <v>42</v>
@@ -2939,7 +2949,9 @@
       <c r="G54" s="37">
         <v>21.0</v>
       </c>
-      <c r="H54" s="86"/>
+      <c r="H54" s="86" t="s">
+        <v>20</v>
+      </c>
       <c r="I54" s="87"/>
       <c r="J54" s="88"/>
     </row>
@@ -2948,7 +2960,7 @@
         <v>22</v>
       </c>
       <c r="C55" s="76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="76" t="s">
         <v>51</v>
@@ -2975,7 +2987,7 @@
         <v>22</v>
       </c>
       <c r="C56" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D56" s="76" t="s">
         <v>31</v>
@@ -2990,7 +3002,7 @@
         <v>21.0</v>
       </c>
       <c r="H56" s="89" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I56" s="90" t="s">
         <v>25</v>
@@ -3002,7 +3014,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" s="76" t="s">
         <v>51</v>
@@ -3029,7 +3041,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" s="76" t="s">
         <v>51</v>
@@ -3056,7 +3068,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59" s="76" t="s">
         <v>51</v>
@@ -3081,7 +3093,7 @@
     <row r="60">
       <c r="B60" s="67"/>
       <c r="C60" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60" s="91" t="s">
         <v>8</v>
@@ -3089,14 +3101,14 @@
       <c r="E60" s="92">
         <v>45592.0</v>
       </c>
-      <c r="F60" s="92">
-        <v>45612.0</v>
-      </c>
-      <c r="G60" s="93">
-        <v>21.0</v>
-      </c>
-      <c r="H60" s="94" t="s">
-        <v>89</v>
+      <c r="F60" s="93">
+        <v>45619.0</v>
+      </c>
+      <c r="G60" s="94">
+        <v>28.0</v>
+      </c>
+      <c r="H60" s="89" t="s">
+        <v>20</v>
       </c>
       <c r="I60" s="95"/>
       <c r="J60" s="88"/>
@@ -3105,23 +3117,24 @@
       <c r="B61" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="76" t="s">
-        <v>38</v>
+      <c r="C61" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="70" t="s">
+        <v>42</v>
       </c>
       <c r="E61" s="72">
         <v>45592.0</v>
       </c>
-      <c r="F61" s="72">
-        <v>45598.0</v>
+      <c r="F61" s="73">
+        <v>45612.0</v>
       </c>
       <c r="G61" s="74">
-        <v>7.0</v>
-      </c>
-      <c r="H61" s="96" t="s">
-        <v>89</v>
+        <f t="shared" ref="G61:G71" si="4">IF(E61=0,"",F61-E61+1)</f>
+        <v>21</v>
+      </c>
+      <c r="H61" s="46" t="s">
+        <v>20</v>
       </c>
       <c r="I61" s="83" t="s">
         <v>40</v>
@@ -3129,11 +3142,9 @@
       <c r="J61" s="88"/>
     </row>
     <row r="62">
-      <c r="B62" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="76" t="s">
-        <v>91</v>
+      <c r="B62" s="67"/>
+      <c r="C62" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="D62" s="76" t="s">
         <v>38</v>
@@ -3141,41 +3152,41 @@
       <c r="E62" s="72">
         <v>45592.0</v>
       </c>
-      <c r="F62" s="72">
-        <v>45598.0</v>
+      <c r="F62" s="73">
+        <v>45612.0</v>
       </c>
       <c r="G62" s="74">
-        <v>7.0</v>
-      </c>
-      <c r="H62" s="96" t="s">
-        <v>89</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="H62" s="46" t="s">
+        <v>20</v>
       </c>
       <c r="I62" s="83" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J62" s="88"/>
     </row>
     <row r="63">
-      <c r="B63" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="76" t="s">
-        <v>62</v>
+      <c r="B63" s="67"/>
+      <c r="C63" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="D63" s="76" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E63" s="72">
         <v>45592.0</v>
       </c>
-      <c r="F63" s="72">
+      <c r="F63" s="73">
         <v>45612.0</v>
       </c>
       <c r="G63" s="74">
-        <v>21.0</v>
-      </c>
-      <c r="H63" s="96" t="s">
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="H63" s="46" t="s">
+        <v>20</v>
       </c>
       <c r="I63" s="83" t="s">
         <v>25</v>
@@ -3187,68 +3198,71 @@
         <v>63</v>
       </c>
       <c r="C64" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="76" t="s">
-        <v>64</v>
+        <v>91</v>
+      </c>
+      <c r="D64" s="70" t="s">
+        <v>8</v>
       </c>
       <c r="E64" s="72">
         <v>45592.0</v>
       </c>
-      <c r="F64" s="72">
-        <v>45612.0</v>
+      <c r="F64" s="73">
+        <v>45618.0</v>
       </c>
       <c r="G64" s="74">
-        <v>21.0</v>
-      </c>
-      <c r="H64" s="96" t="s">
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="H64" s="46" t="s">
+        <v>20</v>
       </c>
       <c r="I64" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="97"/>
+      <c r="J64" s="88"/>
     </row>
     <row r="65">
-      <c r="B65" s="67"/>
-      <c r="C65" s="34" t="s">
+      <c r="B65" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="72">
+        <v>45592.0</v>
+      </c>
+      <c r="F65" s="72">
+        <v>45612.0</v>
+      </c>
+      <c r="G65" s="74">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="D65" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="85">
-        <v>45592.0</v>
-      </c>
-      <c r="F65" s="85">
-        <v>45612.0</v>
-      </c>
-      <c r="G65" s="37">
-        <f t="shared" ref="G65:G69" si="4">IF(E65=0,"",F65-E65+1)</f>
-        <v>21</v>
-      </c>
       <c r="H65" s="46" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I65" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J65" s="97"/>
+      <c r="J65" s="88"/>
     </row>
     <row r="66">
-      <c r="B66" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="98" t="s">
-        <v>51</v>
+      <c r="B66" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="76" t="s">
+        <v>64</v>
       </c>
       <c r="E66" s="72">
         <v>45592.0</v>
       </c>
-      <c r="F66" s="72">
+      <c r="F66" s="73">
         <v>45612.0</v>
       </c>
       <c r="G66" s="74">
@@ -3261,218 +3275,218 @@
       <c r="I66" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J66" s="99"/>
+      <c r="J66" s="96"/>
     </row>
     <row r="67">
-      <c r="B67" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="72">
+      <c r="B67" s="67"/>
+      <c r="C67" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="85">
         <v>45592.0</v>
       </c>
-      <c r="F67" s="72">
-        <v>45612.0</v>
-      </c>
-      <c r="G67" s="74">
+      <c r="F67" s="35">
+        <v>45618.0</v>
+      </c>
+      <c r="G67" s="37">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H67" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="I67" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J67" s="101"/>
+      <c r="J67" s="96"/>
     </row>
     <row r="68">
       <c r="B68" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="98" t="s">
+      <c r="C68" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="97" t="s">
         <v>51</v>
       </c>
       <c r="E68" s="72">
         <v>45592.0</v>
       </c>
-      <c r="F68" s="72">
-        <v>45612.0</v>
+      <c r="F68" s="73">
+        <v>45618.0</v>
       </c>
       <c r="G68" s="74">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H68" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="I68" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J68" s="101"/>
+      <c r="J68" s="98"/>
     </row>
     <row r="69">
       <c r="B69" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="100" t="s">
+      <c r="C69" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="99" t="s">
         <v>31</v>
       </c>
       <c r="E69" s="72">
         <v>45592.0</v>
       </c>
-      <c r="F69" s="72">
-        <v>45612.0</v>
+      <c r="F69" s="73">
+        <v>45618.0</v>
       </c>
       <c r="G69" s="74">
         <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="H69" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" s="100"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="72">
+        <v>45592.0</v>
+      </c>
+      <c r="F70" s="73">
+        <v>45618.0</v>
+      </c>
+      <c r="G70" s="74">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="H70" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" s="100"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="72">
+        <v>45592.0</v>
+      </c>
+      <c r="F71" s="73">
+        <v>45618.0</v>
+      </c>
+      <c r="G71" s="74">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="H71" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J71" s="101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="61"/>
+      <c r="C72" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="64">
+        <v>45619.0</v>
+      </c>
+      <c r="F72" s="64">
+        <v>45641.0</v>
+      </c>
+      <c r="G72" s="65">
+        <f>IF(E72=0,"",F72-E72+1)</f>
+        <v>23</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="67"/>
+      <c r="C73" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H69" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="I69" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J69" s="101"/>
-    </row>
-    <row r="70">
-      <c r="B70" s="61"/>
-      <c r="C70" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" s="63" t="s">
+      <c r="D73" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="64">
-        <v>45613.0</v>
-      </c>
-      <c r="F70" s="64">
-        <v>45626.0</v>
-      </c>
-      <c r="G70" s="65">
-        <f>IF(E70=0,"",F70-E70+1)</f>
-        <v>14</v>
-      </c>
-      <c r="H70" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="67"/>
-      <c r="C71" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="36">
-        <v>45613.0</v>
-      </c>
-      <c r="F71" s="36">
-        <v>45626.0</v>
-      </c>
-      <c r="G71" s="37">
-        <f t="shared" ref="G71:G76" si="5">IF(E71=0,"",F71-E71+1)</f>
-        <v>14</v>
-      </c>
-      <c r="H71" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="I71" s="34"/>
-      <c r="J71" s="39"/>
-    </row>
-    <row r="72">
-      <c r="B72" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="81">
-        <v>45613.0</v>
-      </c>
-      <c r="F72" s="72">
-        <v>45626.0</v>
-      </c>
-      <c r="G72" s="74">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="H72" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="I72" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" s="77"/>
-    </row>
-    <row r="73">
-      <c r="B73" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" s="81">
-        <v>45613.0</v>
-      </c>
-      <c r="F73" s="72">
-        <v>45626.0</v>
-      </c>
-      <c r="G73" s="74">
-        <f t="shared" si="5"/>
-        <v>14</v>
+      <c r="E73" s="36">
+        <v>45619.0</v>
+      </c>
+      <c r="F73" s="36">
+        <v>45641.0</v>
+      </c>
+      <c r="G73" s="37">
+        <f t="shared" ref="G73:G78" si="5">IF(E73=0,"",F73-E73+1)</f>
+        <v>23</v>
       </c>
       <c r="H73" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="I73" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J73" s="77"/>
+        <v>20</v>
+      </c>
+      <c r="I73" s="34"/>
+      <c r="J73" s="39"/>
     </row>
     <row r="74">
       <c r="B74" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="98" t="s">
+      <c r="C74" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="97" t="s">
         <v>51</v>
       </c>
       <c r="E74" s="81">
-        <v>45613.0</v>
-      </c>
-      <c r="F74" s="72">
-        <v>45626.0</v>
+        <v>45619.0</v>
+      </c>
+      <c r="F74" s="73">
+        <v>45641.0</v>
       </c>
       <c r="G74" s="74">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H74" s="46" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I74" s="46" t="s">
         <v>25</v>
@@ -3480,27 +3494,27 @@
       <c r="J74" s="77"/>
     </row>
     <row r="75">
-      <c r="B75" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="103" t="s">
-        <v>8</v>
+      <c r="B75" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="99" t="s">
+        <v>31</v>
       </c>
       <c r="E75" s="81">
-        <v>45613.0</v>
-      </c>
-      <c r="F75" s="72">
-        <v>45626.0</v>
-      </c>
-      <c r="G75" s="104">
+        <v>45619.0</v>
+      </c>
+      <c r="F75" s="73">
+        <v>45641.0</v>
+      </c>
+      <c r="G75" s="74">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H75" s="46" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I75" s="46" t="s">
         <v>25</v>
@@ -3508,32 +3522,88 @@
       <c r="J75" s="77"/>
     </row>
     <row r="76">
-      <c r="B76" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="103" t="s">
-        <v>64</v>
+      <c r="B76" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="97" t="s">
+        <v>51</v>
       </c>
       <c r="E76" s="81">
-        <v>45613.0</v>
-      </c>
-      <c r="F76" s="72">
-        <v>45626.0</v>
-      </c>
-      <c r="G76" s="104">
+        <v>45619.0</v>
+      </c>
+      <c r="F76" s="73">
+        <v>45641.0</v>
+      </c>
+      <c r="G76" s="74">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H76" s="46" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I76" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="75"/>
+      <c r="J76" s="77"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="81">
+        <v>45619.0</v>
+      </c>
+      <c r="F77" s="73">
+        <v>45641.0</v>
+      </c>
+      <c r="G77" s="104">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="H77" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77" s="77"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="81">
+        <v>45619.0</v>
+      </c>
+      <c r="F78" s="73">
+        <v>45641.0</v>
+      </c>
+      <c r="G78" s="104">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="H78" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3542,112 +3612,112 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I69 I72:I76">
+  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I71 I74:I78">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH(("Low"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I69 I72:I76">
+  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I71 I74:I78">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I69 I72:I76">
+  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I71 I74:I78">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH(("High"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I69 I72:I76">
+  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I71 I74:I78">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH(("Approved"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I69 I72:I76">
+  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I71 I74:I78">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I69 I72:I76">
+  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I71 I74:I78">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH(("Not Started"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I69 I72:I76">
+  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I71 I74:I78">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="On Hold">
       <formula>NOT(ISERROR(SEARCH(("On Hold"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I69 I72:I76">
+  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I71 I74:I78">
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH(("Overdue"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I69 I72:I76">
+  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I71 I74:I78">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH(("Complete"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I69 I72:I76">
+  <conditionalFormatting sqref="I7 I9:I35 I38:I46 I49:I71 I74:I78">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH(("In Progress"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H76">
+  <conditionalFormatting sqref="H7:H78">
     <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH(("Approved"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H76">
+  <conditionalFormatting sqref="H7:H78">
     <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H76">
+  <conditionalFormatting sqref="H7:H78">
     <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH(("Not Started"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H76">
+  <conditionalFormatting sqref="H7:H78">
     <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="On Hold">
       <formula>NOT(ISERROR(SEARCH(("On Hold"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H76">
+  <conditionalFormatting sqref="H7:H78">
     <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH(("Overdue"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H76">
+  <conditionalFormatting sqref="H7:H78">
     <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH(("Complete"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H76">
+  <conditionalFormatting sqref="H7:H78">
     <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH(("In Progress"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B16 B21 B27 B33:B36 B47 B70">
+  <conditionalFormatting sqref="B7:B16 B21 B27 B33:B36 B47 B72">
     <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH(("No"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B16 B21 B27 B33:B36 B47 B70">
+  <conditionalFormatting sqref="B7:B16 B21 B27 B33:B36 B47 B72">
     <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I7:I35 I38:I46 I49:I69 I72:I76">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I7:I35 I38:I46 I49:I71 I74:I78">
       <formula1>'Dropdown Keys - Do Not Delete -'!$D$3:$D$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B39 B43:B74">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B39 B43:B76">
       <formula1>'Dropdown Keys - Do Not Delete -'!$B$3:$B$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H76">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H78">
       <formula1>'Dropdown Keys - Do Not Delete -'!$F$3:$F$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B40:B42 B75:B76">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B40:B42 B77:B78">
       <formula1>'Dropdown Keys - Do Not Delete -'!$B$3:$B$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -3682,7 +3752,7 @@
     <row r="1" ht="42.0" customHeight="1">
       <c r="A1" s="105"/>
       <c r="B1" s="106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="107"/>
       <c r="D1" s="107"/>
@@ -3712,15 +3782,15 @@
     <row r="2" ht="24.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="108" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="108" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="108" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3735,7 +3805,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="111" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -3750,7 +3820,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="42" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -3776,7 +3846,7 @@
       <c r="D6" s="116"/>
       <c r="E6" s="1"/>
       <c r="F6" s="117" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -3786,7 +3856,7 @@
       <c r="D7" s="116"/>
       <c r="E7" s="1"/>
       <c r="F7" s="118" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -3796,7 +3866,7 @@
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="119" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -3806,7 +3876,7 @@
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="120" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -10877,7 +10947,7 @@
     <row r="2" ht="111.0" customHeight="1">
       <c r="A2" s="121"/>
       <c r="B2" s="122" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="121"/>
       <c r="D2" s="121"/>
